--- a/assets/findings/2024-03-07-findings.xlsx
+++ b/assets/findings/2024-03-07-findings.xlsx
@@ -643,8 +643,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -676,8 +678,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -742,8 +746,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -775,8 +781,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -841,8 +849,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -874,8 +884,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -940,8 +952,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -973,8 +987,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1039,8 +1055,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -1072,8 +1090,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1138,8 +1158,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1171,8 +1193,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1237,8 +1261,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -1270,8 +1296,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1336,8 +1364,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1369,8 +1399,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1435,8 +1467,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1468,8 +1502,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1534,8 +1570,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1567,8 +1605,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1633,8 +1673,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -1666,8 +1708,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1732,8 +1776,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1765,8 +1811,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1831,8 +1879,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -1864,8 +1914,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1930,8 +1982,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1963,8 +2017,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2029,8 +2085,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2062,8 +2120,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2128,8 +2188,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -2161,8 +2223,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2227,8 +2291,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2260,8 +2326,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2326,8 +2394,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2359,8 +2429,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2425,8 +2497,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2458,8 +2532,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2524,8 +2600,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2557,8 +2635,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2623,8 +2703,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2656,8 +2738,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2722,8 +2806,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2755,8 +2841,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2821,8 +2909,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2854,8 +2944,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2920,8 +3012,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2953,8 +3047,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -3019,8 +3115,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -3052,8 +3150,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -3118,8 +3218,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -3151,8 +3253,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -3217,8 +3321,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3250,8 +3356,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -3316,8 +3424,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3349,8 +3459,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3415,8 +3527,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3448,8 +3562,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3514,8 +3630,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3547,8 +3665,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3613,8 +3733,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3646,8 +3768,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3712,8 +3836,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3745,8 +3871,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3811,8 +3939,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3844,8 +3974,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3910,8 +4042,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3943,8 +4077,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -4009,8 +4145,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -4042,8 +4180,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -4108,8 +4248,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -4141,8 +4283,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -4207,8 +4351,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -4240,8 +4386,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -4306,8 +4454,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4339,8 +4489,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -4405,8 +4557,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4438,8 +4592,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -4504,8 +4660,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4537,8 +4695,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -4603,8 +4763,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" s="1" t="inlineStr">
         <is>
@@ -4636,8 +4798,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4702,8 +4866,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4735,8 +4901,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4801,8 +4969,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4834,8 +5004,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4900,8 +5072,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4933,8 +5107,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4999,8 +5175,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -5032,8 +5210,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -5345,8 +5525,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5378,8 +5560,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5444,8 +5628,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5477,8 +5663,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5543,8 +5731,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5576,8 +5766,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5642,8 +5834,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5675,8 +5869,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -5741,8 +5937,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -5774,8 +5972,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -5840,8 +6040,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -5873,8 +6075,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -5939,8 +6143,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -5972,8 +6178,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -6038,8 +6246,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -6071,8 +6281,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -6137,8 +6349,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -6170,8 +6384,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -6236,8 +6452,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -6269,8 +6487,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -6335,8 +6555,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -6368,8 +6590,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -6434,8 +6658,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -6467,8 +6693,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -6533,8 +6761,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -6566,8 +6796,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -6632,8 +6864,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -6665,8 +6899,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -6731,8 +6967,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -6764,8 +7002,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -6830,8 +7070,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -6863,8 +7105,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -6929,8 +7173,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -6962,8 +7208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -7028,8 +7276,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -7061,8 +7311,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -7127,8 +7379,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -7160,8 +7414,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -7226,8 +7482,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -7259,8 +7517,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -7522,8 +7782,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -7555,8 +7817,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -7621,8 +7885,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -7654,8 +7920,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7720,8 +7988,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -7753,8 +8023,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7819,8 +8091,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -7852,8 +8126,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7918,8 +8194,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -7951,8 +8229,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -8184,8 +8464,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -8217,8 +8499,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -8283,8 +8567,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -8316,8 +8602,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -8382,8 +8670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -8415,8 +8705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -8481,8 +8773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -8514,8 +8808,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -8745,8 +9041,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -8778,8 +9076,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -8844,8 +9144,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -8877,8 +9179,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -8943,8 +9247,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -8976,8 +9282,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -9042,8 +9350,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -9075,8 +9385,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -9141,8 +9453,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -9174,8 +9488,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -9240,8 +9556,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -9273,8 +9591,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -9339,8 +9659,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -9372,8 +9694,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -9438,8 +9762,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -9471,8 +9797,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -9537,8 +9865,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -9570,8 +9900,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -9636,8 +9968,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -9669,8 +10003,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -9912,8 +10248,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -9945,8 +10283,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10011,8 +10351,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -10044,8 +10386,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10271,8 +10615,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -10304,8 +10650,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10370,8 +10718,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -10403,8 +10753,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10469,8 +10821,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -10502,8 +10856,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -10568,8 +10924,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -10601,8 +10959,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -10667,8 +11027,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -10700,8 +11062,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -10766,8 +11130,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -10799,8 +11165,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -10865,8 +11233,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -10898,8 +11268,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -10964,8 +11336,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -10997,8 +11371,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -11063,8 +11439,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -11096,8 +11474,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -11162,8 +11542,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -11195,8 +11577,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -11261,8 +11645,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -11294,8 +11680,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -11360,8 +11748,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -11393,8 +11783,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -11459,8 +11851,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -11492,8 +11886,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -11558,8 +11954,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -11591,8 +11989,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -11657,8 +12057,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -11690,8 +12092,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -11756,8 +12160,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -11789,8 +12195,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -11855,8 +12263,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -11888,8 +12298,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -11954,8 +12366,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -11987,8 +12401,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -12053,8 +12469,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -12086,8 +12504,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -12152,8 +12572,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -12185,8 +12607,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -12251,8 +12675,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -12284,8 +12710,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -12549,8 +12977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -12582,8 +13012,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -12648,8 +13080,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -12681,8 +13115,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -12908,8 +13344,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -12941,8 +13379,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13166,8 +13606,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13199,8 +13641,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13265,8 +13709,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -13298,8 +13744,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -13364,8 +13812,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -13397,8 +13847,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -13463,8 +13915,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -13496,8 +13950,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -13727,8 +14183,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13760,8 +14218,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13985,8 +14445,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -14018,8 +14480,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -14084,8 +14548,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -14117,8 +14583,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -14183,8 +14651,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -14216,8 +14686,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -14445,8 +14917,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -14478,8 +14952,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -14544,8 +15020,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -14577,8 +15055,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -14804,8 +15284,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -14837,8 +15319,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -14903,8 +15387,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -14936,8 +15422,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15002,8 +15490,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15035,8 +15525,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15101,8 +15593,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -15134,8 +15628,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -15200,8 +15696,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -15233,8 +15731,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -15299,8 +15799,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -15332,8 +15834,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -15398,8 +15902,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -15431,8 +15937,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -15497,8 +16005,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -15530,8 +16040,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -15596,8 +16108,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -15629,8 +16143,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -15695,8 +16211,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -15728,8 +16246,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -15794,8 +16314,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -15827,8 +16349,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -15893,8 +16417,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -15926,8 +16452,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -15992,8 +16520,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -16025,8 +16555,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -16091,8 +16623,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -16124,8 +16658,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -16190,8 +16726,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -16223,8 +16761,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -16289,8 +16829,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -16322,8 +16864,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -16388,8 +16932,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -16421,8 +16967,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -16487,8 +17035,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -16520,8 +17070,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -16586,8 +17138,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -16619,8 +17173,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -16685,8 +17241,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -16718,8 +17276,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -16784,8 +17344,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -16817,8 +17379,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -16883,8 +17447,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -16916,8 +17482,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -16982,8 +17550,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -17015,8 +17585,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -17081,8 +17653,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -17114,8 +17688,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -17180,8 +17756,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -17213,8 +17791,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -17279,8 +17859,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -17312,8 +17894,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -17378,8 +17962,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -17411,8 +17997,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -17477,8 +18065,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -17510,8 +18100,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -17576,8 +18168,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -17609,8 +18203,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -17675,8 +18271,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -17708,8 +18306,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -17774,8 +18374,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -17807,8 +18409,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -17873,8 +18477,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -17906,8 +18512,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -17972,8 +18580,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -18005,8 +18615,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -18071,8 +18683,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -18104,8 +18718,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -18170,8 +18786,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -18203,8 +18821,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -18269,8 +18889,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -18302,8 +18924,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -18368,8 +18992,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -18401,8 +19027,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -18467,8 +19095,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -18500,8 +19130,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -18566,8 +19198,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -18599,8 +19233,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>1</v>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -18665,8 +19301,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -18698,8 +19336,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -18764,8 +19404,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -18797,8 +19439,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -18863,8 +19507,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -18896,8 +19542,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -18962,8 +19610,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -18995,8 +19645,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -19061,8 +19713,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -19094,8 +19748,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -19160,8 +19816,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -19193,8 +19851,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -19259,8 +19919,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -19292,8 +19954,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>1</v>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -19358,8 +20022,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -19391,8 +20057,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>1</v>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -19457,8 +20125,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -19490,8 +20160,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -19556,8 +20228,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -19589,8 +20263,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>1</v>
+      <c r="U50" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -19655,8 +20331,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -19688,8 +20366,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -19754,8 +20434,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -19787,8 +20469,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>1</v>
+      <c r="U52" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -19853,8 +20537,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -19886,8 +20572,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>1</v>
+      <c r="U53" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -19952,8 +20640,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -19985,8 +20675,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -20051,8 +20743,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -20084,8 +20778,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>1</v>
+      <c r="U55" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -20150,8 +20846,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -20183,8 +20881,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>1</v>
+      <c r="U56" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -20249,8 +20949,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -20282,8 +20984,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>1</v>
+      <c r="U57" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -20348,8 +21052,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -20381,8 +21087,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>1</v>
+      <c r="U58" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -20447,8 +21155,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -20480,8 +21190,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>1</v>
+      <c r="U59" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -20546,8 +21258,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -20579,8 +21293,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>1</v>
+      <c r="U60" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -20645,8 +21361,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -20678,8 +21396,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>1</v>
+      <c r="U61" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -20744,8 +21464,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -20777,8 +21499,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>1</v>
+      <c r="U62" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -20843,8 +21567,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -20876,8 +21602,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>1</v>
+      <c r="U63" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -20942,8 +21670,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -20975,8 +21705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>1</v>
+      <c r="U64" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -21041,8 +21773,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -21074,8 +21808,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>1</v>
+      <c r="U65" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -21140,8 +21876,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -21173,8 +21911,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -21239,8 +21979,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -21272,8 +22014,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -21338,8 +22082,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -21371,8 +22117,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -21437,8 +22185,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -21470,8 +22220,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -21536,8 +22288,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -21569,8 +22323,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -21635,8 +22391,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -21668,8 +22426,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -21734,8 +22494,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -21767,8 +22529,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -21833,8 +22597,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -21866,8 +22632,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -21932,8 +22700,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" s="1" t="inlineStr">
         <is>
@@ -21965,8 +22735,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>1</v>
+      <c r="U74" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -22031,8 +22803,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" s="1" t="inlineStr">
         <is>
@@ -22064,8 +22838,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>1</v>
+      <c r="U75" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -22130,8 +22906,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" s="1" t="inlineStr">
         <is>
@@ -22163,8 +22941,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -22229,8 +23009,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" s="1" t="inlineStr">
         <is>
@@ -22262,8 +23044,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -22328,8 +23112,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" s="1" t="inlineStr">
         <is>
@@ -22361,8 +23147,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -22427,8 +23215,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" s="1" t="inlineStr">
         <is>
@@ -22460,8 +23250,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -22526,8 +23318,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" s="1" t="inlineStr">
         <is>
@@ -22559,8 +23353,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -22625,8 +23421,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" s="1" t="inlineStr">
         <is>
@@ -22658,8 +23456,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -22724,8 +23524,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" s="1" t="inlineStr">
         <is>
@@ -22757,8 +23559,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -22823,8 +23627,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M83" t="b">
-        <v>0</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O83" s="1" t="inlineStr">
         <is>
@@ -22856,8 +23662,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U83" t="b">
-        <v>0</v>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -22922,8 +23730,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M84" t="b">
-        <v>0</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -22955,8 +23765,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U84" t="b">
-        <v>0</v>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -23021,8 +23833,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M85" t="b">
-        <v>0</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -23054,8 +23868,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U85" t="b">
-        <v>0</v>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -23120,8 +23936,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M86" t="b">
-        <v>0</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -23153,8 +23971,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U86" t="b">
-        <v>0</v>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -23219,8 +24039,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M87" t="b">
-        <v>0</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -23252,8 +24074,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U87" t="b">
-        <v>0</v>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -23318,8 +24142,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M88" t="b">
-        <v>0</v>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -23351,8 +24177,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U88" t="b">
-        <v>0</v>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -23417,8 +24245,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M89" t="b">
-        <v>0</v>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -23450,8 +24280,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U89" t="b">
-        <v>0</v>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -23516,8 +24348,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M90" t="b">
-        <v>0</v>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -23549,8 +24383,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U90" t="b">
-        <v>0</v>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -23615,8 +24451,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M91" t="b">
-        <v>0</v>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -23648,8 +24486,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U91" t="b">
-        <v>0</v>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -23714,8 +24554,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M92" t="b">
-        <v>0</v>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -23747,8 +24589,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U92" t="b">
-        <v>0</v>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -23813,8 +24657,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M93" t="b">
-        <v>0</v>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -23846,8 +24692,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U93" t="b">
-        <v>0</v>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -23912,8 +24760,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M94" t="b">
-        <v>0</v>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -23945,8 +24795,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U94" t="b">
-        <v>0</v>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -24011,8 +24863,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M95" t="b">
-        <v>0</v>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -24044,8 +24898,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U95" t="b">
-        <v>0</v>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
@@ -24110,8 +24966,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M96" t="b">
-        <v>0</v>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -24143,8 +25001,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U96" t="b">
-        <v>0</v>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
@@ -24209,8 +25069,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M97" t="b">
-        <v>0</v>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -24242,8 +25104,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U97" t="b">
-        <v>0</v>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
@@ -24308,8 +25172,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M98" t="b">
-        <v>0</v>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -24341,8 +25207,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U98" t="b">
-        <v>0</v>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
@@ -24407,8 +25275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M99" t="b">
-        <v>0</v>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -24440,8 +25310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U99" t="b">
-        <v>0</v>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
@@ -24506,8 +25378,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M100" t="b">
-        <v>0</v>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -24539,8 +25413,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U100" t="b">
-        <v>0</v>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
@@ -24605,8 +25481,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M101" t="b">
-        <v>0</v>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -24638,8 +25516,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U101" t="b">
-        <v>0</v>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
@@ -24704,8 +25584,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M102" t="b">
-        <v>0</v>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -24737,8 +25619,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U102" t="b">
-        <v>0</v>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
@@ -24803,8 +25687,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M103" t="b">
-        <v>0</v>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -24836,8 +25722,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U103" t="b">
-        <v>0</v>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
@@ -24902,8 +25790,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M104" t="b">
-        <v>0</v>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -24935,8 +25825,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U104" t="b">
-        <v>0</v>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
@@ -25001,8 +25893,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M105" t="b">
-        <v>0</v>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -25034,8 +25928,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U105" t="b">
-        <v>1</v>
+      <c r="U105" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
@@ -25100,8 +25996,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M106" t="b">
-        <v>0</v>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -25133,8 +26031,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U106" t="b">
-        <v>1</v>
+      <c r="U106" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
@@ -25199,8 +26099,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M107" t="b">
-        <v>0</v>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O107" s="1" t="inlineStr">
         <is>
@@ -25232,8 +26134,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U107" t="b">
-        <v>0</v>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
@@ -25298,8 +26202,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M108" t="b">
-        <v>0</v>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O108" s="1" t="inlineStr">
         <is>
@@ -25331,8 +26237,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U108" t="b">
-        <v>0</v>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
@@ -25397,8 +26305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M109" t="b">
-        <v>0</v>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -25430,8 +26340,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U109" t="b">
-        <v>0</v>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
@@ -25496,8 +26408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M110" t="b">
-        <v>0</v>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -25529,8 +26443,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U110" t="b">
-        <v>0</v>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
@@ -25595,8 +26511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M111" t="b">
-        <v>0</v>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O111" s="1" t="inlineStr">
         <is>
@@ -25628,8 +26546,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U111" t="b">
-        <v>0</v>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
@@ -25694,8 +26614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M112" t="b">
-        <v>0</v>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O112" s="1" t="inlineStr">
         <is>
@@ -25727,8 +26649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U112" t="b">
-        <v>0</v>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
@@ -25793,8 +26717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M113" t="b">
-        <v>0</v>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O113" s="1" t="inlineStr">
         <is>
@@ -25826,8 +26752,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U113" t="b">
-        <v>0</v>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
@@ -25892,8 +26820,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M114" t="b">
-        <v>0</v>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O114" s="1" t="inlineStr">
         <is>
@@ -25925,8 +26855,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U114" t="b">
-        <v>1</v>
+      <c r="U114" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
@@ -25991,8 +26923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M115" t="b">
-        <v>0</v>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O115" s="1" t="inlineStr">
         <is>
@@ -26024,8 +26958,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U115" t="b">
-        <v>1</v>
+      <c r="U115" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
@@ -26090,8 +27026,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M116" t="b">
-        <v>0</v>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -26123,8 +27061,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U116" t="b">
-        <v>0</v>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
@@ -26189,8 +27129,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M117" t="b">
-        <v>0</v>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -26222,8 +27164,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U117" t="b">
-        <v>0</v>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
@@ -26288,8 +27232,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M118" t="b">
-        <v>0</v>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -26321,8 +27267,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U118" t="b">
-        <v>0</v>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
@@ -26387,8 +27335,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M119" t="b">
-        <v>0</v>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -26420,8 +27370,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U119" t="b">
-        <v>0</v>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
@@ -26486,8 +27438,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M120" t="b">
-        <v>0</v>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -26519,8 +27473,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U120" t="b">
-        <v>1</v>
+      <c r="U120" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
@@ -26585,8 +27541,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M121" t="b">
-        <v>0</v>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -26618,8 +27576,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U121" t="b">
-        <v>0</v>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
@@ -27081,8 +28041,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -27114,8 +28076,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -27180,8 +28144,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -27213,8 +28179,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -27279,8 +28247,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -27312,8 +28282,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -27378,8 +28350,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -27411,8 +28385,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -27477,8 +28453,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -27510,8 +28488,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -27576,8 +28556,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -27609,8 +28591,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -27675,8 +28659,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -27708,8 +28694,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -27774,8 +28762,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -27807,8 +28797,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -27873,8 +28865,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -27906,8 +28900,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -27972,8 +28968,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -28005,8 +29003,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -28071,8 +29071,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -28104,8 +29106,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -28170,8 +29174,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -28203,8 +29209,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -28269,8 +29277,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -28302,8 +29312,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -28368,8 +29380,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -28401,8 +29415,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -28467,8 +29483,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -28500,8 +29518,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -28566,8 +29586,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -28599,8 +29621,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -28665,8 +29689,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -28698,8 +29724,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -28955,8 +29983,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -28988,8 +30018,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -29054,8 +30086,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -29087,8 +30121,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -29153,8 +30189,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -29186,8 +30224,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -29252,8 +30292,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -29285,8 +30327,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -29351,8 +30395,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -29384,8 +30430,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -29617,8 +30665,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -29650,8 +30700,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -29875,8 +30927,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -29908,8 +30962,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -29974,8 +31030,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -30007,8 +31065,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30073,8 +31133,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -30106,8 +31168,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -30172,8 +31236,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -30205,8 +31271,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -30436,8 +31504,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -30469,8 +31539,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30535,8 +31607,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -30568,8 +31642,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30795,8 +31871,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -30828,8 +31906,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30894,8 +31974,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -30927,8 +32009,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30993,8 +32077,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -31026,8 +32112,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -31092,8 +32180,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -31125,8 +32215,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -31356,8 +32448,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -31389,8 +32483,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -31455,8 +32551,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -31488,8 +32586,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -31715,8 +32815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -31748,8 +32850,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -31814,8 +32918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -31847,8 +32953,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -31913,8 +33021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -31946,8 +33056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -32012,8 +33124,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -32045,8 +33159,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -32111,8 +33227,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -32144,8 +33262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -32210,8 +33330,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -32243,8 +33365,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -32309,8 +33433,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -32342,8 +33468,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -32408,8 +33536,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -32441,8 +33571,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -32507,8 +33639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -32540,8 +33674,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -32606,8 +33742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -32639,8 +33777,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -32705,8 +33845,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -32738,8 +33880,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -32804,8 +33948,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -32837,8 +33983,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -32903,8 +34051,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -32936,8 +34086,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -33002,8 +34154,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -33035,8 +34189,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -33101,8 +34257,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -33134,8 +34292,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -33200,8 +34360,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -33233,8 +34395,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -33299,8 +34463,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -33332,8 +34498,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -33398,8 +34566,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -33431,8 +34601,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -33497,8 +34669,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -33530,8 +34704,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -33596,8 +34772,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -33629,8 +34807,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -33695,8 +34875,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -33728,8 +34910,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -33794,8 +34978,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -33827,8 +35013,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -33893,8 +35081,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -33926,8 +35116,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -33992,8 +35184,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -34025,8 +35219,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -34091,8 +35287,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -34124,8 +35322,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -34190,8 +35390,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -34223,8 +35425,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -34289,8 +35493,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -34322,8 +35528,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -34388,8 +35596,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -34421,8 +35631,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -34487,8 +35699,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -34520,8 +35734,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -34586,8 +35802,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -34619,8 +35837,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -34685,8 +35905,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -34718,8 +35940,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -34784,8 +36008,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -34817,8 +36043,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -34883,8 +36111,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -34916,8 +36146,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -34982,8 +36214,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -35015,8 +36249,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -35081,8 +36317,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -35114,8 +36352,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -35180,8 +36420,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -35213,8 +36455,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -35279,8 +36523,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -35312,8 +36558,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -35378,8 +36626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -35411,8 +36661,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -35477,8 +36729,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -35510,8 +36764,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -35576,8 +36832,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -35609,8 +36867,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -35675,8 +36935,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -35708,8 +36970,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -35774,8 +37038,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -35807,8 +37073,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -35873,8 +37141,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
@@ -35906,8 +37176,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -35972,8 +37244,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" s="1" t="inlineStr">
         <is>
@@ -36005,8 +37279,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -36071,8 +37347,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" s="1" t="inlineStr">
         <is>
@@ -36104,8 +37382,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -36170,8 +37450,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" s="1" t="inlineStr">
         <is>
@@ -36203,8 +37485,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -36269,8 +37553,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" s="1" t="inlineStr">
         <is>
@@ -36302,8 +37588,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -36368,8 +37656,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" s="1" t="inlineStr">
         <is>
@@ -36401,8 +37691,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -36467,8 +37759,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" s="1" t="inlineStr">
         <is>
@@ -36500,8 +37794,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -36566,8 +37862,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" s="1" t="inlineStr">
         <is>
@@ -36599,8 +37897,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -36665,8 +37965,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" s="1" t="inlineStr">
         <is>
@@ -36698,8 +38000,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -36764,8 +38068,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" s="1" t="inlineStr">
         <is>
@@ -36797,8 +38103,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -36863,8 +38171,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -36896,8 +38206,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -36962,8 +38274,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -36995,8 +38309,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>1</v>
+      <c r="U55" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -37061,8 +38377,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -37094,8 +38412,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>1</v>
+      <c r="U56" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -37160,8 +38480,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -37193,8 +38515,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>1</v>
+      <c r="U57" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -37259,8 +38583,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -37292,8 +38618,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>1</v>
+      <c r="U58" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -37358,8 +38686,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -37391,8 +38721,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>1</v>
+      <c r="U59" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -37457,8 +38789,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -37490,8 +38824,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -37556,8 +38892,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -37589,8 +38927,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -37655,8 +38995,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -37688,8 +39030,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -37754,8 +39098,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -37787,8 +39133,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -37853,8 +39201,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -37886,8 +39236,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -37952,8 +39304,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -37985,8 +39339,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -38051,8 +39407,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -38084,8 +39442,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -38150,8 +39510,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -38183,8 +39545,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -38249,8 +39613,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -38282,8 +39648,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -38348,8 +39716,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -38381,8 +39751,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -38447,8 +39819,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -38480,8 +39854,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -38546,8 +39922,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -38579,8 +39957,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -38645,8 +40025,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -38678,8 +40060,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -38744,8 +40128,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -38777,8 +40163,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -38843,8 +40231,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -38876,8 +40266,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -38942,8 +40334,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -38975,8 +40369,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -39041,8 +40437,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -39074,8 +40472,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -39140,8 +40540,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -39173,8 +40575,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -39239,8 +40643,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -39272,8 +40678,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -39338,8 +40746,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -39371,8 +40781,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -39437,8 +40849,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -39470,8 +40884,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -39536,8 +40952,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -39569,8 +40987,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -39635,8 +41055,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -39668,8 +41090,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -39734,8 +41158,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M83" t="b">
-        <v>0</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -39767,8 +41193,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U83" t="b">
-        <v>0</v>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -39833,8 +41261,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M84" t="b">
-        <v>0</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -39866,8 +41296,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U84" t="b">
-        <v>0</v>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -39932,8 +41364,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M85" t="b">
-        <v>0</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -39965,8 +41399,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U85" t="b">
-        <v>0</v>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -40031,8 +41467,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M86" t="b">
-        <v>0</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -40064,8 +41502,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U86" t="b">
-        <v>0</v>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -40130,8 +41570,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M87" t="b">
-        <v>0</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -40163,8 +41605,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U87" t="b">
-        <v>0</v>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -40229,8 +41673,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M88" t="b">
-        <v>0</v>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O88" s="1" t="inlineStr">
         <is>
@@ -40262,8 +41708,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U88" t="b">
-        <v>0</v>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -40328,8 +41776,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M89" t="b">
-        <v>0</v>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O89" s="1" t="inlineStr">
         <is>
@@ -40361,8 +41811,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U89" t="b">
-        <v>0</v>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -40427,8 +41879,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M90" t="b">
-        <v>0</v>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O90" s="1" t="inlineStr">
         <is>
@@ -40460,8 +41914,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U90" t="b">
-        <v>0</v>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -40526,8 +41982,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M91" t="b">
-        <v>0</v>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O91" s="1" t="inlineStr">
         <is>
@@ -40559,8 +42017,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U91" t="b">
-        <v>1</v>
+      <c r="U91" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -40625,8 +42085,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M92" t="b">
-        <v>0</v>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O92" s="1" t="inlineStr">
         <is>
@@ -40658,8 +42120,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U92" t="b">
-        <v>1</v>
+      <c r="U92" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -40724,8 +42188,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M93" t="b">
-        <v>0</v>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -40757,8 +42223,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U93" t="b">
-        <v>0</v>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -40823,8 +42291,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M94" t="b">
-        <v>0</v>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -40856,8 +42326,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U94" t="b">
-        <v>0</v>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -40922,8 +42394,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M95" t="b">
-        <v>0</v>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -40955,8 +42429,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U95" t="b">
-        <v>0</v>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
@@ -41021,8 +42497,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M96" t="b">
-        <v>0</v>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -41054,8 +42532,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U96" t="b">
-        <v>0</v>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
@@ -41120,8 +42600,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M97" t="b">
-        <v>0</v>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -41153,8 +42635,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U97" t="b">
-        <v>1</v>
+      <c r="U97" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
@@ -41219,8 +42703,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M98" t="b">
-        <v>0</v>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -41252,8 +42738,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U98" t="b">
-        <v>0</v>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
@@ -41318,8 +42806,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M99" t="b">
-        <v>0</v>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -41351,8 +42841,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U99" t="b">
-        <v>0</v>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
@@ -41417,8 +42909,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M100" t="b">
-        <v>0</v>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -41450,8 +42944,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U100" t="b">
-        <v>0</v>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
@@ -41516,8 +43012,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M101" t="b">
-        <v>0</v>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -41549,8 +43047,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U101" t="b">
-        <v>0</v>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
@@ -41615,8 +43115,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M102" t="b">
-        <v>0</v>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -41648,8 +43150,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U102" t="b">
-        <v>0</v>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
@@ -42073,8 +43577,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -42106,8 +43612,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -42172,8 +43680,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -42205,8 +43715,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
